--- a/global/verwerking-mails.xlsx
+++ b/global/verwerking-mails.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessevander/artevelde/pgm-code/19-20/semester_2/buscomit/digital-mkt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessevander/artevelde/pgm-code/19-20/semester_2/buscomit/digital-mkt/digital-marketing/global/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B131168-74AA-874B-9EC2-5EB386CE02E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C248DE-23E8-414E-96A9-D87D57776BE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{EA4D0A3B-D6A2-084A-A804-C36F15355729}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{EA4D0A3B-D6A2-084A-A804-C36F15355729}"/>
   </bookViews>
   <sheets>
     <sheet name="mail1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>Overzicht mail 1</t>
   </si>
@@ -139,15 +139,30 @@
   <si>
     <t>3) Wat vindt u van een voorbeeld van hoe blogpost er kan uitzien?</t>
   </si>
+  <si>
+    <t>Percentage geopende kliks (uniek)</t>
+  </si>
+  <si>
+    <t>aantal kliks</t>
+  </si>
+  <si>
+    <t>Meest geopende mails</t>
+  </si>
+  <si>
+    <t>aantal</t>
+  </si>
+  <si>
+    <t>Tijdstip</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -184,6 +199,13 @@
       <color theme="0"/>
       <name val="Calibri (Hoofdtekst)"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -205,7 +227,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -625,44 +647,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -675,78 +701,21 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="33" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -760,7 +729,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -773,9 +742,99 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="3" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -942,6 +1001,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5CB0-154D-BB1D-C724503434BD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -962,6 +1026,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5CB0-154D-BB1D-C724503434BD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -982,6 +1051,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-5CB0-154D-BB1D-C724503434BD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1002,6 +1076,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-5CB0-154D-BB1D-C724503434BD}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -1278,6 +1357,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-C1BC-434A-B4A9-8C727FAAE265}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1298,6 +1382,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-C1BC-434A-B4A9-8C727FAAE265}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1318,6 +1407,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-C1BC-434A-B4A9-8C727FAAE265}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1338,6 +1432,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-C1BC-434A-B4A9-8C727FAAE265}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1358,6 +1457,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-C1BC-434A-B4A9-8C727FAAE265}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1378,6 +1482,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-C1BC-434A-B4A9-8C727FAAE265}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -1400,6 +1509,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-C1BC-434A-B4A9-8C727FAAE265}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -1694,6 +1808,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-1B72-584C-B633-BC62E0CE3071}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1714,6 +1833,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1B72-584C-B633-BC62E0CE3071}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1734,6 +1858,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-1B72-584C-B633-BC62E0CE3071}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1754,6 +1883,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-1B72-584C-B633-BC62E0CE3071}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -1774,6 +1908,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-1B72-584C-B633-BC62E0CE3071}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -4010,8 +4149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D367BBD-5D68-DE44-B1E9-D50A512C91AB}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4025,422 +4164,453 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
     </row>
     <row r="8" spans="1:13" ht="37">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="K8" s="23" t="s">
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="K8" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="K10" s="16" t="s">
+      <c r="K10" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="17"/>
+      <c r="L10" s="28"/>
       <c r="M10" s="29"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="9"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="31"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="35"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="32"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="10"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="11"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
       <c r="E12" s="1"/>
-      <c r="K12" s="12" t="s">
+      <c r="K12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L12" s="7" t="s">
+      <c r="L12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M12" s="45" t="s">
+      <c r="M12" s="18" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="24" customHeight="1">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K13" s="22" t="s">
+      <c r="K13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L13" s="22">
+      <c r="L13" s="9">
         <v>11</v>
       </c>
-      <c r="M13" s="43">
+      <c r="M13" s="16">
         <f>L13/$A$27</f>
         <v>0.47826086956521741</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="26" customHeight="1">
-      <c r="A14" s="14">
+      <c r="A14" s="6">
         <v>34</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="6">
         <v>29</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="7">
         <f>B14/A14</f>
         <v>0.8529411764705882</v>
       </c>
-      <c r="K14" s="48" t="s">
+      <c r="K14" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="L14" s="48">
+      <c r="L14" s="21">
         <v>12</v>
       </c>
-      <c r="M14" s="49">
+      <c r="M14" s="22">
         <f t="shared" ref="M14:M16" si="0">L14/$A$27</f>
         <v>0.52173913043478259</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="26" customHeight="1">
-      <c r="K15" s="4" t="s">
+      <c r="K15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="2">
         <v>0</v>
       </c>
-      <c r="M15" s="43">
+      <c r="M15" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="24" customHeight="1">
-      <c r="K16" s="4" t="s">
+      <c r="K16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="2">
         <v>0</v>
       </c>
-      <c r="M16" s="43">
+      <c r="M16" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="9"/>
+      <c r="A18" s="33" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="34"/>
+      <c r="C18" s="35"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="10"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="11"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
     </row>
     <row r="20" spans="1:13">
-      <c r="A20" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="7" t="s">
+      <c r="A20" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="B20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="26" t="s">
+      <c r="K20" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="L20" s="17"/>
+      <c r="L20" s="28"/>
       <c r="M20" s="29"/>
     </row>
     <row r="21" spans="1:13">
-      <c r="A21" s="14">
-        <v>34</v>
-      </c>
-      <c r="B21" s="14">
+      <c r="A21" s="6">
         <v>29</v>
       </c>
-      <c r="C21" s="15">
+      <c r="B21" s="6">
+        <v>23</v>
+      </c>
+      <c r="C21" s="7">
         <f>B21/A21</f>
-        <v>0.8529411764705882</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="K21" s="30"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="31"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="32"/>
     </row>
     <row r="22" spans="1:13">
-      <c r="K22" s="25" t="s">
+      <c r="K22" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="L22" s="27" t="s">
+      <c r="L22" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="M22" s="32" t="s">
+      <c r="M22" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:13">
-      <c r="K23" s="50" t="s">
+      <c r="K23" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L23" s="51">
+      <c r="L23" s="24">
         <v>14</v>
       </c>
-      <c r="M23" s="52">
+      <c r="M23" s="25">
         <f>L23/23</f>
         <v>0.60869565217391308</v>
       </c>
     </row>
     <row r="24" spans="1:13">
-      <c r="K24" s="4" t="s">
+      <c r="K24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L24" s="28">
+      <c r="L24" s="12">
         <v>1</v>
       </c>
-      <c r="M24" s="33">
+      <c r="M24" s="14">
         <f t="shared" ref="M24:M29" si="1">L24/23</f>
         <v>4.3478260869565216E-2</v>
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="8" t="s">
+      <c r="A25" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="9"/>
-      <c r="K25" s="4" t="s">
+      <c r="B25" s="34"/>
+      <c r="C25" s="35"/>
+      <c r="K25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="L25" s="28">
+      <c r="L25" s="12">
         <v>0</v>
       </c>
-      <c r="M25" s="33">
+      <c r="M25" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="10"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="11"/>
-      <c r="K26" s="4" t="s">
+      <c r="A26" s="36"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="38"/>
+      <c r="K26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="L26" s="28">
+      <c r="L26" s="12">
         <v>7</v>
       </c>
-      <c r="M26" s="33">
+      <c r="M26" s="14">
         <f t="shared" si="1"/>
         <v>0.30434782608695654</v>
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="34">
+      <c r="A27" s="39">
         <v>23</v>
       </c>
-      <c r="B27" s="35"/>
-      <c r="C27" s="36"/>
-      <c r="K27" s="4" t="s">
+      <c r="B27" s="40"/>
+      <c r="C27" s="41"/>
+      <c r="K27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L27" s="28">
+      <c r="L27" s="12">
         <v>13</v>
       </c>
-      <c r="M27" s="33">
+      <c r="M27" s="14">
         <f t="shared" si="1"/>
         <v>0.56521739130434778</v>
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="37"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="39"/>
-      <c r="K28" s="4" t="s">
+      <c r="A28" s="42"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="44"/>
+      <c r="K28" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="L28" s="28">
+      <c r="L28" s="12">
         <v>7</v>
       </c>
-      <c r="M28" s="33">
+      <c r="M28" s="14">
         <f t="shared" si="1"/>
         <v>0.30434782608695654</v>
       </c>
     </row>
     <row r="29" spans="1:13">
-      <c r="K29" s="4" t="s">
+      <c r="K29" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L29" s="28">
+      <c r="L29" s="12">
         <v>0</v>
       </c>
-      <c r="M29" s="33">
+      <c r="M29" s="14">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="40"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
+      <c r="A32" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="34"/>
+      <c r="C32" s="35"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="21"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="21"/>
-      <c r="K33" s="26" t="s">
+      <c r="A33" s="36"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="38"/>
+      <c r="K33" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="L33" s="17"/>
+      <c r="L33" s="28"/>
       <c r="M33" s="29"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="41"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
+      <c r="A34" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="56" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="K34" s="30"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="31"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="32"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="41"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="K35" s="12" t="s">
+      <c r="A35" s="51">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="B35" s="6">
+        <v>6</v>
+      </c>
+      <c r="C35" s="7">
+        <f>B35/$A$21</f>
+        <v>0.20689655172413793</v>
+      </c>
+      <c r="K35" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L35" s="20" t="s">
+      <c r="L35" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="M35" s="44" t="s">
+      <c r="M35" s="17" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="42"/>
-      <c r="B36" s="42"/>
-      <c r="K36" s="46" t="s">
+      <c r="A36" s="51">
+        <v>0.625</v>
+      </c>
+      <c r="B36" s="6">
+        <v>6</v>
+      </c>
+      <c r="C36" s="7">
+        <f>B36/$A$21</f>
+        <v>0.20689655172413793</v>
+      </c>
+      <c r="K36" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="L36" s="22">
+      <c r="L36" s="9">
         <v>0</v>
       </c>
-      <c r="M36" s="47">
+      <c r="M36" s="20">
         <f>L36/$A$27</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="42"/>
-      <c r="B37" s="42"/>
-      <c r="K37" s="4" t="s">
+      <c r="A37" s="52">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="B37" s="53">
+        <v>4</v>
+      </c>
+      <c r="C37" s="54">
+        <f>B37/$A$21</f>
+        <v>0.13793103448275862</v>
+      </c>
+      <c r="K37" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L37" s="4">
+      <c r="L37" s="2">
         <v>0</v>
       </c>
-      <c r="M37" s="47">
+      <c r="M37" s="20">
         <f t="shared" ref="M37:M40" si="2">L37/$A$27</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="42"/>
-      <c r="B38" s="42"/>
-      <c r="K38" s="4" t="s">
+      <c r="A38" s="15"/>
+      <c r="B38" s="15"/>
+      <c r="K38" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L38" s="4">
+      <c r="L38" s="2">
         <v>4</v>
       </c>
-      <c r="M38" s="47">
+      <c r="M38" s="20">
         <f t="shared" si="2"/>
         <v>0.17391304347826086</v>
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="K39" s="48" t="s">
+      <c r="K39" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="L39" s="48">
+      <c r="L39" s="21">
         <v>13</v>
       </c>
-      <c r="M39" s="53">
+      <c r="M39" s="26">
         <f t="shared" si="2"/>
         <v>0.56521739130434778</v>
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="K40" s="4" t="s">
+      <c r="K40" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L40" s="4">
+      <c r="L40" s="2">
         <v>6</v>
       </c>
-      <c r="M40" s="47">
+      <c r="M40" s="20">
         <f t="shared" si="2"/>
         <v>0.2608695652173913</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="K20:M21"/>
     <mergeCell ref="A25:C26"/>
     <mergeCell ref="A27:C28"/>
@@ -4451,6 +4621,7 @@
     <mergeCell ref="A18:C19"/>
     <mergeCell ref="K8:M8"/>
     <mergeCell ref="K10:M11"/>
+    <mergeCell ref="A32:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/global/verwerking-mails.xlsx
+++ b/global/verwerking-mails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessevander/artevelde/pgm-code/19-20/semester_2/buscomit/digital-mkt/digital-marketing/global/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C248DE-23E8-414E-96A9-D87D57776BE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1100CF3-57E0-5341-B22F-1BA2D74055B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{EA4D0A3B-D6A2-084A-A804-C36F15355729}"/>
   </bookViews>
@@ -140,9 +140,6 @@
     <t>3) Wat vindt u van een voorbeeld van hoe blogpost er kan uitzien?</t>
   </si>
   <si>
-    <t>Percentage geopende kliks (uniek)</t>
-  </si>
-  <si>
     <t>aantal kliks</t>
   </si>
   <si>
@@ -153,6 +150,9 @@
   </si>
   <si>
     <t>Tijdstip</t>
+  </si>
+  <si>
+    <t>Percentage kliks (uniek)</t>
   </si>
 </sst>
 </file>
@@ -746,6 +746,24 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -817,24 +835,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4150,7 +4150,7 @@
   <dimension ref="A1:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="A18" sqref="A18:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4164,85 +4164,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="46"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="46"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="46"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
+      <c r="A5" s="52"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
     </row>
     <row r="8" spans="1:13" ht="37">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="K8" s="47" t="s">
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="K8" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="K10" s="49" t="s">
+      <c r="K10" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="28"/>
-      <c r="M10" s="29"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="35"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="35"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="32"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="41"/>
+      <c r="K11" s="56"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="38"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="36"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="38"/>
+      <c r="A12" s="42"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
       <c r="E12" s="1"/>
       <c r="K12" s="4" t="s">
         <v>7</v>
@@ -4322,32 +4322,32 @@
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="35"/>
+      <c r="A18" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="40"/>
+      <c r="C18" s="41"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="36"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="38"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="44"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="27" t="s">
+      <c r="K20" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="L20" s="28"/>
-      <c r="M20" s="29"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="35"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="6">
@@ -4360,9 +4360,9 @@
         <f>B21/A21</f>
         <v>0.7931034482758621</v>
       </c>
-      <c r="K21" s="30"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="32"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="38"/>
     </row>
     <row r="22" spans="1:13">
       <c r="K22" s="10" t="s">
@@ -4400,11 +4400,11 @@
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="33" t="s">
+      <c r="A25" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="35"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="41"/>
       <c r="K25" s="2" t="s">
         <v>17</v>
       </c>
@@ -4417,9 +4417,9 @@
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="36"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="38"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="44"/>
       <c r="K26" s="2" t="s">
         <v>13</v>
       </c>
@@ -4432,11 +4432,11 @@
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="39">
+      <c r="A27" s="45">
         <v>23</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="41"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="47"/>
       <c r="K27" s="2" t="s">
         <v>14</v>
       </c>
@@ -4449,9 +4449,9 @@
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="42"/>
-      <c r="B28" s="43"/>
-      <c r="C28" s="44"/>
+      <c r="A28" s="48"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="50"/>
       <c r="K28" s="2" t="s">
         <v>15</v>
       </c>
@@ -4476,38 +4476,38 @@
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="35"/>
+      <c r="A32" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="40"/>
+      <c r="C32" s="41"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="36"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="38"/>
-      <c r="K33" s="27" t="s">
+      <c r="A33" s="42"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="44"/>
+      <c r="K33" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="L33" s="28"/>
-      <c r="M33" s="29"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="35"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="56" t="s">
+      <c r="A34" s="31" t="s">
         <v>32</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>31</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K34" s="30"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="32"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="38"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="51">
+      <c r="A35" s="27">
         <v>0.54166666666666663</v>
       </c>
       <c r="B35" s="6">
@@ -4528,7 +4528,7 @@
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="51">
+      <c r="A36" s="27">
         <v>0.625</v>
       </c>
       <c r="B36" s="6">
@@ -4550,13 +4550,13 @@
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="52">
+      <c r="A37" s="28">
         <v>0.83333333333333337</v>
       </c>
-      <c r="B37" s="53">
+      <c r="B37" s="29">
         <v>4</v>
       </c>
-      <c r="C37" s="54">
+      <c r="C37" s="30">
         <f>B37/$A$21</f>
         <v>0.13793103448275862</v>
       </c>

--- a/global/verwerking-mails.xlsx
+++ b/global/verwerking-mails.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessevander/artevelde/pgm-code/19-20/semester_2/buscomit/digital-mkt/digital-marketing/global/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1100CF3-57E0-5341-B22F-1BA2D74055B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628DB119-E93F-114C-BA0B-64634274DF18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{EA4D0A3B-D6A2-084A-A804-C36F15355729}"/>
+    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{EA4D0A3B-D6A2-084A-A804-C36F15355729}"/>
   </bookViews>
   <sheets>
     <sheet name="mail1" sheetId="1" r:id="rId1"/>
+    <sheet name="mail2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
   <si>
     <t>Overzicht mail 1</t>
   </si>
@@ -154,6 +155,46 @@
   <si>
     <t>Percentage kliks (uniek)</t>
   </si>
+  <si>
+    <t>Overzicht mail 2</t>
+  </si>
+  <si>
+    <t>1) Update achtergrondkleur, wat is beter?</t>
+  </si>
+  <si>
+    <t>2) Design detailpagina, wat is beter?</t>
+  </si>
+  <si>
+    <t>3) Design titele, wat is beter?</t>
+  </si>
+  <si>
+    <t>Oud Design</t>
+  </si>
+  <si>
+    <t>Nieuw Design</t>
+  </si>
+  <si>
+    <t>Titel met accentkleur</t>
+  </si>
+  <si>
+    <t>Titel zonder accentkleur</t>
+  </si>
+  <si>
+    <r>
+      <t>Eerste mail.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Een tweede onderzoek naar de mening over stijl en layout van de website.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -162,7 +203,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -206,8 +247,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri (Hoofdtekst)"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri (Hoofdtekst)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri (Hoofdtekst)"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,8 +289,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0086FF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF3D"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="37">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -675,12 +750,208 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -835,6 +1106,112 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2060,6 +2437,858 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Update achtergrondkleur, wat is beter?</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>mail2!$K$13:$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Oud Design</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nieuw Design</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mail2!$L$13:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1CBD-FC4A-B5C3-73E7C216CAE6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Design detailpagina, wat is beter?</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>mail2!$K$23:$K$24</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Oud Design</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nieuw Design</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mail2!$L$23:$L$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7640-9B40-A2B3-62EDCB883799}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Design titele, wat is beter?</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="0"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="25400">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="25400">
+                <a:contourClr>
+                  <a:schemeClr val="lt1"/>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>mail2!$K$36:$K$37</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Titel met accentkleur</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Titel zonder accentkleur</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>mail2!$L$36:$L$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AF5B-7D4D-8796-A8BAD279173E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2180,6 +3409,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
   <cs:axisTitle>
@@ -3219,6 +4568,1563 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="262">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3830,6 +6736,119 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3452BDB3-99B7-5445-BC46-28B9E116252D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Grafiek 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{331E9694-1673-D944-9A93-8EBB72E465FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Grafiek 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{053462DD-1F82-8947-BC15-360547EA1175}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Grafiek 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C3710BB-16AE-F849-A406-CCFDA03D7617}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4149,8 +7168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D367BBD-5D68-DE44-B1E9-D50A512C91AB}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:C19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -4626,4 +7645,1402 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973ED143-5EBB-DE42-B635-7D5CD6BA6F9B}">
+  <dimension ref="A1:W49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="11" max="11" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23">
+      <c r="A1" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="57"/>
+    </row>
+    <row r="2" spans="1:23">
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="57"/>
+      <c r="N2" s="57"/>
+      <c r="O2" s="57"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="57"/>
+      <c r="R2" s="57"/>
+      <c r="S2" s="57"/>
+      <c r="T2" s="57"/>
+      <c r="U2" s="57"/>
+      <c r="V2" s="57"/>
+      <c r="W2" s="57"/>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
+      <c r="N3" s="57"/>
+      <c r="O3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="57"/>
+      <c r="R3" s="57"/>
+      <c r="S3" s="57"/>
+      <c r="T3" s="57"/>
+      <c r="U3" s="57"/>
+      <c r="V3" s="57"/>
+      <c r="W3" s="57"/>
+    </row>
+    <row r="4" spans="1:23">
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" s="73"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
+      <c r="S5" s="57"/>
+      <c r="T5" s="57"/>
+      <c r="U5" s="57"/>
+      <c r="V5" s="57"/>
+      <c r="W5" s="57"/>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" s="57"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="O6" s="57"/>
+      <c r="P6" s="57"/>
+      <c r="Q6" s="57"/>
+      <c r="R6" s="57"/>
+      <c r="S6" s="57"/>
+      <c r="T6" s="57"/>
+      <c r="U6" s="57"/>
+      <c r="V6" s="57"/>
+      <c r="W6" s="57"/>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" s="57"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="57"/>
+      <c r="U7" s="57"/>
+      <c r="V7" s="57"/>
+      <c r="W7" s="57"/>
+    </row>
+    <row r="8" spans="1:23" ht="37">
+      <c r="A8" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="74"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="74" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="74"/>
+      <c r="M8" s="74"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
+      <c r="S8" s="57"/>
+      <c r="T8" s="57"/>
+      <c r="U8" s="57"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="57"/>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" s="57"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="57"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="57"/>
+      <c r="U9" s="57"/>
+      <c r="V9" s="57"/>
+      <c r="W9" s="57"/>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" s="57"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="75" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="76"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="57"/>
+      <c r="U10" s="57"/>
+      <c r="V10" s="57"/>
+      <c r="W10" s="57"/>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="76"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="80"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="57"/>
+      <c r="U11" s="57"/>
+      <c r="V11" s="57"/>
+      <c r="W11" s="57"/>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" s="78"/>
+      <c r="B12" s="79"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="L12" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="M12" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="57"/>
+      <c r="W12" s="57"/>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="L13" s="64">
+        <v>3</v>
+      </c>
+      <c r="M13" s="65">
+        <f>L13/$A$27</f>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="57"/>
+      <c r="U13" s="57"/>
+      <c r="V13" s="57"/>
+      <c r="W13" s="57"/>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" s="66">
+        <v>34</v>
+      </c>
+      <c r="B14" s="67">
+        <v>24</v>
+      </c>
+      <c r="C14" s="65">
+        <f>B14/A14</f>
+        <v>0.70588235294117652</v>
+      </c>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="69">
+        <v>16</v>
+      </c>
+      <c r="M14" s="92">
+        <f>L14/$A$27</f>
+        <v>0.84210526315789469</v>
+      </c>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="57"/>
+      <c r="U14" s="57"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="57"/>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" s="57"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="87"/>
+      <c r="K15" s="87"/>
+      <c r="L15" s="87"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="57"/>
+      <c r="U15" s="57"/>
+      <c r="V15" s="57"/>
+      <c r="W15" s="57"/>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" s="57"/>
+      <c r="B16" s="57"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="88"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="57"/>
+      <c r="U16" s="57"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="57"/>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" s="57"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="87"/>
+      <c r="L17" s="87"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="57"/>
+      <c r="U17" s="57"/>
+      <c r="V17" s="57"/>
+      <c r="W17" s="57"/>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" s="75" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="76"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="57"/>
+      <c r="S18" s="57"/>
+      <c r="T18" s="57"/>
+      <c r="U18" s="57"/>
+      <c r="V18" s="57"/>
+      <c r="W18" s="57"/>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" s="78"/>
+      <c r="B19" s="79"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="89"/>
+      <c r="K19" s="89"/>
+      <c r="L19" s="89"/>
+      <c r="M19" s="89"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="57"/>
+      <c r="S19" s="57"/>
+      <c r="T19" s="57"/>
+      <c r="U19" s="57"/>
+      <c r="V19" s="57"/>
+      <c r="W19" s="57"/>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="89"/>
+      <c r="K20" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="L20" s="76"/>
+      <c r="M20" s="77"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="57"/>
+      <c r="V20" s="57"/>
+      <c r="W20" s="57"/>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" s="66">
+        <f>B14</f>
+        <v>24</v>
+      </c>
+      <c r="B21" s="67">
+        <f>21</f>
+        <v>21</v>
+      </c>
+      <c r="C21" s="65">
+        <f>B21/A21</f>
+        <v>0.875</v>
+      </c>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="89"/>
+      <c r="K21" s="78"/>
+      <c r="L21" s="79"/>
+      <c r="M21" s="80"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="57"/>
+      <c r="S21" s="57"/>
+      <c r="T21" s="57"/>
+      <c r="U21" s="57"/>
+      <c r="V21" s="57"/>
+      <c r="W21" s="57"/>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" s="57"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="L22" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="M22" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="57"/>
+      <c r="R22" s="57"/>
+      <c r="S22" s="57"/>
+      <c r="T22" s="57"/>
+      <c r="U22" s="57"/>
+      <c r="V22" s="57"/>
+      <c r="W22" s="57"/>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" s="57"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="89"/>
+      <c r="K23" s="63" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23" s="64">
+        <v>1</v>
+      </c>
+      <c r="M23" s="65">
+        <f>L23/$A$27</f>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="N23" s="57"/>
+      <c r="O23" s="57"/>
+      <c r="P23" s="57"/>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="57"/>
+      <c r="U23" s="57"/>
+      <c r="V23" s="57"/>
+      <c r="W23" s="57"/>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" s="57"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="89"/>
+      <c r="K24" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="L24" s="69">
+        <v>18</v>
+      </c>
+      <c r="M24" s="92">
+        <f>L24/$A$27</f>
+        <v>0.94736842105263153</v>
+      </c>
+      <c r="N24" s="57"/>
+      <c r="O24" s="57"/>
+      <c r="P24" s="57"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="57"/>
+      <c r="T24" s="57"/>
+      <c r="U24" s="57"/>
+      <c r="V24" s="57"/>
+      <c r="W24" s="57"/>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="76"/>
+      <c r="C25" s="77"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="89"/>
+      <c r="L25" s="89"/>
+      <c r="M25" s="90"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="57"/>
+      <c r="Q25" s="57"/>
+      <c r="R25" s="57"/>
+      <c r="S25" s="57"/>
+      <c r="T25" s="57"/>
+      <c r="U25" s="57"/>
+      <c r="V25" s="57"/>
+      <c r="W25" s="57"/>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" s="78"/>
+      <c r="B26" s="79"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="89"/>
+      <c r="K26" s="89"/>
+      <c r="L26" s="89"/>
+      <c r="M26" s="90"/>
+      <c r="N26" s="57"/>
+      <c r="O26" s="57"/>
+      <c r="P26" s="57"/>
+      <c r="Q26" s="57"/>
+      <c r="R26" s="57"/>
+      <c r="S26" s="57"/>
+      <c r="T26" s="57"/>
+      <c r="U26" s="57"/>
+      <c r="V26" s="57"/>
+      <c r="W26" s="57"/>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" s="81">
+        <v>19</v>
+      </c>
+      <c r="B27" s="82"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="89"/>
+      <c r="L27" s="89"/>
+      <c r="M27" s="90"/>
+      <c r="N27" s="57"/>
+      <c r="O27" s="57"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="57"/>
+      <c r="S27" s="57"/>
+      <c r="T27" s="57"/>
+      <c r="U27" s="57"/>
+      <c r="V27" s="57"/>
+      <c r="W27" s="57"/>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" s="84"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="89"/>
+      <c r="K28" s="89"/>
+      <c r="L28" s="89"/>
+      <c r="M28" s="90"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="57"/>
+      <c r="T28" s="57"/>
+      <c r="U28" s="57"/>
+      <c r="V28" s="57"/>
+      <c r="W28" s="57"/>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" s="57"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="89"/>
+      <c r="K29" s="89"/>
+      <c r="L29" s="89"/>
+      <c r="M29" s="90"/>
+      <c r="N29" s="57"/>
+      <c r="O29" s="57"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="57"/>
+      <c r="R29" s="57"/>
+      <c r="S29" s="57"/>
+      <c r="T29" s="57"/>
+      <c r="U29" s="57"/>
+      <c r="V29" s="57"/>
+      <c r="W29" s="57"/>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="57"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="89"/>
+      <c r="K30" s="89"/>
+      <c r="L30" s="89"/>
+      <c r="M30" s="89"/>
+      <c r="N30" s="57"/>
+      <c r="O30" s="57"/>
+      <c r="P30" s="57"/>
+      <c r="Q30" s="57"/>
+      <c r="R30" s="57"/>
+      <c r="S30" s="57"/>
+      <c r="T30" s="57"/>
+      <c r="U30" s="57"/>
+      <c r="V30" s="57"/>
+      <c r="W30" s="57"/>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="57"/>
+      <c r="B31" s="57"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="89"/>
+      <c r="K31" s="89"/>
+      <c r="L31" s="89"/>
+      <c r="M31" s="89"/>
+      <c r="N31" s="57"/>
+      <c r="O31" s="57"/>
+      <c r="P31" s="57"/>
+      <c r="Q31" s="57"/>
+      <c r="R31" s="57"/>
+      <c r="S31" s="57"/>
+      <c r="T31" s="57"/>
+      <c r="U31" s="57"/>
+      <c r="V31" s="57"/>
+      <c r="W31" s="57"/>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" s="75" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="76"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="89"/>
+      <c r="K32" s="89"/>
+      <c r="L32" s="89"/>
+      <c r="M32" s="89"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="57"/>
+      <c r="P32" s="57"/>
+      <c r="Q32" s="57"/>
+      <c r="R32" s="57"/>
+      <c r="S32" s="57"/>
+      <c r="T32" s="57"/>
+      <c r="U32" s="57"/>
+      <c r="V32" s="57"/>
+      <c r="W32" s="57"/>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" s="78"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="89"/>
+      <c r="K33" s="75" t="s">
+        <v>37</v>
+      </c>
+      <c r="L33" s="76"/>
+      <c r="M33" s="77"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="57"/>
+      <c r="Q33" s="57"/>
+      <c r="R33" s="57"/>
+      <c r="S33" s="57"/>
+      <c r="T33" s="57"/>
+      <c r="U33" s="57"/>
+      <c r="V33" s="57"/>
+      <c r="W33" s="57"/>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" s="70" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="57"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="89"/>
+      <c r="K34" s="78"/>
+      <c r="L34" s="79"/>
+      <c r="M34" s="80"/>
+      <c r="N34" s="57"/>
+      <c r="O34" s="57"/>
+      <c r="P34" s="57"/>
+      <c r="Q34" s="57"/>
+      <c r="R34" s="57"/>
+      <c r="S34" s="57"/>
+      <c r="T34" s="57"/>
+      <c r="U34" s="57"/>
+      <c r="V34" s="57"/>
+      <c r="W34" s="57"/>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" s="72">
+        <v>0.5</v>
+      </c>
+      <c r="B35" s="67">
+        <v>3</v>
+      </c>
+      <c r="C35" s="65">
+        <f>B35/A27</f>
+        <v>0.15789473684210525</v>
+      </c>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="89"/>
+      <c r="K35" s="59" t="s">
+        <v>7</v>
+      </c>
+      <c r="L35" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="M35" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="N35" s="57"/>
+      <c r="O35" s="57"/>
+      <c r="P35" s="57"/>
+      <c r="Q35" s="57"/>
+      <c r="R35" s="57"/>
+      <c r="S35" s="57"/>
+      <c r="T35" s="57"/>
+      <c r="U35" s="57"/>
+      <c r="V35" s="57"/>
+      <c r="W35" s="57"/>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" s="72">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="B36" s="67">
+        <v>2</v>
+      </c>
+      <c r="C36" s="65">
+        <f>B36/A27</f>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="89"/>
+      <c r="K36" s="95" t="s">
+        <v>40</v>
+      </c>
+      <c r="L36" s="96">
+        <v>11</v>
+      </c>
+      <c r="M36" s="92">
+        <f>L36/$A$27</f>
+        <v>0.57894736842105265</v>
+      </c>
+      <c r="N36" s="57"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="57"/>
+      <c r="R36" s="57"/>
+      <c r="S36" s="57"/>
+      <c r="T36" s="57"/>
+      <c r="U36" s="57"/>
+      <c r="V36" s="57"/>
+      <c r="W36" s="57"/>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" s="72">
+        <v>0.25</v>
+      </c>
+      <c r="B37" s="67">
+        <v>2</v>
+      </c>
+      <c r="C37" s="65">
+        <f>B37/A27</f>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="89"/>
+      <c r="K37" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="L37" s="94">
+        <v>8</v>
+      </c>
+      <c r="M37" s="65">
+        <f>L37/$A$27</f>
+        <v>0.42105263157894735</v>
+      </c>
+      <c r="N37" s="57"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="57"/>
+      <c r="Q37" s="57"/>
+      <c r="R37" s="57"/>
+      <c r="S37" s="57"/>
+      <c r="T37" s="57"/>
+      <c r="U37" s="57"/>
+      <c r="V37" s="57"/>
+      <c r="W37" s="57"/>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="A38" s="57"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="89"/>
+      <c r="K38" s="89"/>
+      <c r="L38" s="89"/>
+      <c r="M38" s="91"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="57"/>
+      <c r="Q38" s="57"/>
+      <c r="R38" s="57"/>
+      <c r="S38" s="57"/>
+      <c r="T38" s="57"/>
+      <c r="U38" s="57"/>
+      <c r="V38" s="57"/>
+      <c r="W38" s="57"/>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="A39" s="57"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="89"/>
+      <c r="K39" s="89"/>
+      <c r="L39" s="89"/>
+      <c r="M39" s="91"/>
+      <c r="N39" s="57"/>
+      <c r="O39" s="57"/>
+      <c r="P39" s="57"/>
+      <c r="Q39" s="57"/>
+      <c r="R39" s="57"/>
+      <c r="S39" s="57"/>
+      <c r="T39" s="57"/>
+      <c r="U39" s="57"/>
+      <c r="V39" s="57"/>
+      <c r="W39" s="57"/>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="A40" s="57"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="89"/>
+      <c r="K40" s="89"/>
+      <c r="L40" s="89"/>
+      <c r="M40" s="91"/>
+      <c r="N40" s="57"/>
+      <c r="O40" s="57"/>
+      <c r="P40" s="57"/>
+      <c r="Q40" s="57"/>
+      <c r="R40" s="57"/>
+      <c r="S40" s="57"/>
+      <c r="T40" s="57"/>
+      <c r="U40" s="57"/>
+      <c r="V40" s="57"/>
+      <c r="W40" s="57"/>
+    </row>
+    <row r="41" spans="1:23">
+      <c r="A41" s="57"/>
+      <c r="B41" s="57"/>
+      <c r="C41" s="57"/>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="57"/>
+      <c r="I41" s="57"/>
+      <c r="J41" s="89"/>
+      <c r="K41" s="89"/>
+      <c r="L41" s="89"/>
+      <c r="M41" s="89"/>
+      <c r="N41" s="57"/>
+      <c r="O41" s="57"/>
+      <c r="P41" s="57"/>
+      <c r="Q41" s="57"/>
+      <c r="R41" s="57"/>
+      <c r="S41" s="57"/>
+      <c r="T41" s="57"/>
+      <c r="U41" s="57"/>
+      <c r="V41" s="57"/>
+      <c r="W41" s="57"/>
+    </row>
+    <row r="42" spans="1:23">
+      <c r="A42" s="57"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="57"/>
+      <c r="K42" s="57"/>
+      <c r="L42" s="57"/>
+      <c r="M42" s="57"/>
+      <c r="N42" s="57"/>
+      <c r="O42" s="57"/>
+      <c r="P42" s="57"/>
+      <c r="Q42" s="57"/>
+      <c r="R42" s="57"/>
+      <c r="S42" s="57"/>
+      <c r="T42" s="57"/>
+      <c r="U42" s="57"/>
+      <c r="V42" s="57"/>
+      <c r="W42" s="57"/>
+    </row>
+    <row r="43" spans="1:23">
+      <c r="A43" s="57"/>
+      <c r="B43" s="57"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="57"/>
+      <c r="K43" s="57"/>
+      <c r="L43" s="57"/>
+      <c r="M43" s="57"/>
+      <c r="N43" s="57"/>
+      <c r="O43" s="57"/>
+      <c r="P43" s="57"/>
+      <c r="Q43" s="57"/>
+      <c r="R43" s="57"/>
+      <c r="S43" s="57"/>
+      <c r="T43" s="57"/>
+      <c r="U43" s="57"/>
+      <c r="V43" s="57"/>
+      <c r="W43" s="57"/>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="A44" s="57"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="57"/>
+      <c r="L44" s="57"/>
+      <c r="M44" s="57"/>
+      <c r="N44" s="57"/>
+      <c r="O44" s="57"/>
+      <c r="P44" s="57"/>
+      <c r="Q44" s="57"/>
+      <c r="R44" s="57"/>
+      <c r="S44" s="57"/>
+      <c r="T44" s="57"/>
+      <c r="U44" s="57"/>
+      <c r="V44" s="57"/>
+      <c r="W44" s="57"/>
+    </row>
+    <row r="45" spans="1:23">
+      <c r="A45" s="57"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="57"/>
+      <c r="K45" s="57"/>
+      <c r="L45" s="57"/>
+      <c r="M45" s="57"/>
+      <c r="N45" s="57"/>
+      <c r="O45" s="57"/>
+      <c r="P45" s="57"/>
+      <c r="Q45" s="57"/>
+      <c r="R45" s="57"/>
+      <c r="S45" s="57"/>
+      <c r="T45" s="57"/>
+      <c r="U45" s="57"/>
+      <c r="V45" s="57"/>
+      <c r="W45" s="57"/>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="A46" s="57"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="57"/>
+      <c r="K46" s="57"/>
+      <c r="L46" s="57"/>
+      <c r="M46" s="57"/>
+      <c r="N46" s="57"/>
+      <c r="O46" s="57"/>
+      <c r="P46" s="57"/>
+      <c r="Q46" s="57"/>
+      <c r="R46" s="57"/>
+      <c r="S46" s="57"/>
+      <c r="T46" s="57"/>
+      <c r="U46" s="57"/>
+      <c r="V46" s="57"/>
+      <c r="W46" s="57"/>
+    </row>
+    <row r="47" spans="1:23">
+      <c r="A47" s="57"/>
+      <c r="B47" s="57"/>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+      <c r="F47" s="57"/>
+      <c r="G47" s="57"/>
+      <c r="H47" s="57"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="57"/>
+      <c r="K47" s="57"/>
+      <c r="L47" s="57"/>
+      <c r="M47" s="57"/>
+      <c r="N47" s="57"/>
+      <c r="O47" s="57"/>
+      <c r="P47" s="57"/>
+      <c r="Q47" s="57"/>
+      <c r="R47" s="57"/>
+      <c r="S47" s="57"/>
+      <c r="T47" s="57"/>
+      <c r="U47" s="57"/>
+      <c r="V47" s="57"/>
+      <c r="W47" s="57"/>
+    </row>
+    <row r="48" spans="1:23">
+      <c r="A48" s="57"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="57"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+      <c r="F48" s="57"/>
+      <c r="G48" s="57"/>
+      <c r="H48" s="57"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="57"/>
+      <c r="K48" s="57"/>
+      <c r="L48" s="57"/>
+      <c r="M48" s="57"/>
+      <c r="N48" s="57"/>
+      <c r="O48" s="57"/>
+      <c r="P48" s="57"/>
+      <c r="Q48" s="57"/>
+      <c r="R48" s="57"/>
+      <c r="S48" s="57"/>
+      <c r="T48" s="57"/>
+      <c r="U48" s="57"/>
+      <c r="V48" s="57"/>
+      <c r="W48" s="57"/>
+    </row>
+    <row r="49" spans="1:23">
+      <c r="A49" s="57"/>
+      <c r="B49" s="57"/>
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+      <c r="F49" s="57"/>
+      <c r="G49" s="57"/>
+      <c r="H49" s="57"/>
+      <c r="I49" s="57"/>
+      <c r="J49" s="57"/>
+      <c r="K49" s="57"/>
+      <c r="L49" s="57"/>
+      <c r="M49" s="57"/>
+      <c r="N49" s="57"/>
+      <c r="O49" s="57"/>
+      <c r="P49" s="57"/>
+      <c r="Q49" s="57"/>
+      <c r="R49" s="57"/>
+      <c r="S49" s="57"/>
+      <c r="T49" s="57"/>
+      <c r="U49" s="57"/>
+      <c r="V49" s="57"/>
+      <c r="W49" s="57"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="K20:M21"/>
+    <mergeCell ref="A25:C26"/>
+    <mergeCell ref="A27:C28"/>
+    <mergeCell ref="A32:C33"/>
+    <mergeCell ref="K33:M34"/>
+    <mergeCell ref="A1:G5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K10:M11"/>
+    <mergeCell ref="A11:C12"/>
+    <mergeCell ref="A18:C19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/global/verwerking-mails.xlsx
+++ b/global/verwerking-mails.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jessevander/artevelde/pgm-code/19-20/semester_2/buscomit/digital-mkt/digital-marketing/global/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628DB119-E93F-114C-BA0B-64634274DF18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AACA11-16E9-BC4F-B3EF-FC940FBFC1AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{EA4D0A3B-D6A2-084A-A804-C36F15355729}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{EA4D0A3B-D6A2-084A-A804-C36F15355729}"/>
   </bookViews>
   <sheets>
     <sheet name="mail1" sheetId="1" r:id="rId1"/>
@@ -165,9 +165,6 @@
     <t>2) Design detailpagina, wat is beter?</t>
   </si>
   <si>
-    <t>3) Design titele, wat is beter?</t>
-  </si>
-  <si>
     <t>Oud Design</t>
   </si>
   <si>
@@ -180,8 +177,11 @@
     <t>Titel zonder accentkleur</t>
   </si>
   <si>
+    <t>3) Design titel, wat is beter?</t>
+  </si>
+  <si>
     <r>
-      <t>Eerste mail.</t>
+      <t>Tweede mail.</t>
     </r>
     <r>
       <rPr>
@@ -192,7 +192,7 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-Een tweede onderzoek naar de mening over stijl en layout van de website.</t>
+Een tweede onderzoek naar de mening over de stijl en layout van de website.</t>
     </r>
   </si>
 </sst>
@@ -1035,6 +1035,70 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1107,54 +1171,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1191,27 +1207,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2572,6 +2572,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3486-4344-A3EE-8FB27BE61E1E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2592,6 +2597,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-3486-4344-A3EE-8FB27BE61E1E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -2856,6 +2866,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-7BEE-CD48-B557-44E3885700A5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2876,6 +2891,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7BEE-CD48-B557-44E3885700A5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -3040,7 +3060,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="nl-NL"/>
-              <a:t>Design titele, wat is beter?</a:t>
+              <a:t>Design titel, wat is beter?</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3140,6 +3160,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-4008-D34B-9D55-AEB5F9D6C461}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3160,6 +3185,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-4008-D34B-9D55-AEB5F9D6C461}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -7168,7 +7198,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D367BBD-5D68-DE44-B1E9-D50A512C91AB}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
@@ -7183,85 +7213,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="A2" s="78"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="52"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
+      <c r="A3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="78"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="52"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="52"/>
+      <c r="A4" s="78"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="52"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
+      <c r="A5" s="78"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
     </row>
     <row r="8" spans="1:13" ht="37">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="K8" s="53" t="s">
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="K8" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="79"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="K10" s="55" t="s">
+      <c r="K10" s="81" t="s">
         <v>26</v>
       </c>
-      <c r="L10" s="34"/>
-      <c r="M10" s="35"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="61"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
-      <c r="K11" s="56"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="38"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="67"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="63"/>
+      <c r="M11" s="64"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="42"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="44"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="70"/>
       <c r="E12" s="1"/>
       <c r="K12" s="4" t="s">
         <v>7</v>
@@ -7341,16 +7371,16 @@
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="41"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="67"/>
     </row>
     <row r="19" spans="1:13">
-      <c r="A19" s="42"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="44"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="70"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="4" t="s">
@@ -7362,11 +7392,11 @@
       <c r="C20" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K20" s="33" t="s">
+      <c r="K20" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="L20" s="34"/>
-      <c r="M20" s="35"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="61"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="6">
@@ -7379,9 +7409,9 @@
         <f>B21/A21</f>
         <v>0.7931034482758621</v>
       </c>
-      <c r="K21" s="36"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="38"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="64"/>
     </row>
     <row r="22" spans="1:13">
       <c r="K22" s="10" t="s">
@@ -7419,11 +7449,11 @@
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="40"/>
-      <c r="C25" s="41"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="67"/>
       <c r="K25" s="2" t="s">
         <v>17</v>
       </c>
@@ -7436,9 +7466,9 @@
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="42"/>
-      <c r="B26" s="43"/>
-      <c r="C26" s="44"/>
+      <c r="A26" s="68"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="70"/>
       <c r="K26" s="2" t="s">
         <v>13</v>
       </c>
@@ -7451,11 +7481,11 @@
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="45">
+      <c r="A27" s="71">
         <v>23</v>
       </c>
-      <c r="B27" s="46"/>
-      <c r="C27" s="47"/>
+      <c r="B27" s="72"/>
+      <c r="C27" s="73"/>
       <c r="K27" s="2" t="s">
         <v>14</v>
       </c>
@@ -7468,9 +7498,9 @@
       </c>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="48"/>
-      <c r="B28" s="49"/>
-      <c r="C28" s="50"/>
+      <c r="A28" s="74"/>
+      <c r="B28" s="75"/>
+      <c r="C28" s="76"/>
       <c r="K28" s="2" t="s">
         <v>15</v>
       </c>
@@ -7495,21 +7525,21 @@
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="39" t="s">
+      <c r="A32" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="40"/>
-      <c r="C32" s="41"/>
+      <c r="B32" s="66"/>
+      <c r="C32" s="67"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="42"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="44"/>
-      <c r="K33" s="33" t="s">
+      <c r="A33" s="68"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="70"/>
+      <c r="K33" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="L33" s="34"/>
-      <c r="M33" s="35"/>
+      <c r="L33" s="60"/>
+      <c r="M33" s="61"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="31" t="s">
@@ -7521,9 +7551,9 @@
       <c r="C34" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K34" s="36"/>
-      <c r="L34" s="37"/>
-      <c r="M34" s="38"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="64"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="27">
@@ -7651,8 +7681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{973ED143-5EBB-DE42-B635-7D5CD6BA6F9B}">
   <dimension ref="A1:W49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M42" sqref="M42"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7665,1380 +7695,1380 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="95" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="57"/>
-      <c r="I1" s="57"/>
-      <c r="J1" s="57"/>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-      <c r="M1" s="57"/>
-      <c r="N1" s="57"/>
-      <c r="O1" s="57"/>
-      <c r="P1" s="57"/>
-      <c r="Q1" s="57"/>
-      <c r="R1" s="57"/>
-      <c r="S1" s="57"/>
-      <c r="T1" s="57"/>
-      <c r="U1" s="57"/>
-      <c r="V1" s="57"/>
-      <c r="W1" s="57"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
     </row>
     <row r="2" spans="1:23">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="K2" s="57"/>
-      <c r="L2" s="57"/>
-      <c r="M2" s="57"/>
-      <c r="N2" s="57"/>
-      <c r="O2" s="57"/>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="57"/>
-      <c r="R2" s="57"/>
-      <c r="S2" s="57"/>
-      <c r="T2" s="57"/>
-      <c r="U2" s="57"/>
-      <c r="V2" s="57"/>
-      <c r="W2" s="57"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
     </row>
     <row r="3" spans="1:23">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
-      <c r="N3" s="57"/>
-      <c r="O3" s="57"/>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="57"/>
-      <c r="S3" s="57"/>
-      <c r="T3" s="57"/>
-      <c r="U3" s="57"/>
-      <c r="V3" s="57"/>
-      <c r="W3" s="57"/>
+      <c r="A3" s="95"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
     </row>
     <row r="4" spans="1:23">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
+      <c r="M4" s="33"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
     </row>
     <row r="5" spans="1:23">
-      <c r="A5" s="73"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
-      <c r="S5" s="57"/>
-      <c r="T5" s="57"/>
-      <c r="U5" s="57"/>
-      <c r="V5" s="57"/>
-      <c r="W5" s="57"/>
+      <c r="A5" s="95"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+      <c r="L5" s="33"/>
+      <c r="M5" s="33"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
+      <c r="V5" s="33"/>
+      <c r="W5" s="33"/>
     </row>
     <row r="6" spans="1:23">
-      <c r="A6" s="57"/>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="57"/>
-      <c r="R6" s="57"/>
-      <c r="S6" s="57"/>
-      <c r="T6" s="57"/>
-      <c r="U6" s="57"/>
-      <c r="V6" s="57"/>
-      <c r="W6" s="57"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
+      <c r="V6" s="33"/>
+      <c r="W6" s="33"/>
     </row>
     <row r="7" spans="1:23">
-      <c r="A7" s="57"/>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="57"/>
-      <c r="N7" s="57"/>
-      <c r="O7" s="57"/>
-      <c r="P7" s="57"/>
-      <c r="Q7" s="57"/>
-      <c r="R7" s="57"/>
-      <c r="S7" s="57"/>
-      <c r="T7" s="57"/>
-      <c r="U7" s="57"/>
-      <c r="V7" s="57"/>
-      <c r="W7" s="57"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
+      <c r="W7" s="33"/>
     </row>
     <row r="8" spans="1:23" ht="37">
-      <c r="A8" s="74" t="s">
+      <c r="A8" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="74" t="s">
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="96" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="57"/>
-      <c r="O8" s="57"/>
-      <c r="P8" s="57"/>
-      <c r="Q8" s="57"/>
-      <c r="R8" s="57"/>
-      <c r="S8" s="57"/>
-      <c r="T8" s="57"/>
-      <c r="U8" s="57"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="57"/>
+      <c r="L8" s="96"/>
+      <c r="M8" s="96"/>
+      <c r="N8" s="33"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="33"/>
+      <c r="U8" s="33"/>
+      <c r="V8" s="33"/>
+      <c r="W8" s="33"/>
     </row>
     <row r="9" spans="1:23">
-      <c r="A9" s="57"/>
-      <c r="B9" s="57"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="57"/>
-      <c r="N9" s="57"/>
-      <c r="O9" s="57"/>
-      <c r="P9" s="57"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="57"/>
-      <c r="U9" s="57"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="57"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
     </row>
     <row r="10" spans="1:23">
-      <c r="A10" s="57"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="75" t="s">
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="76"/>
-      <c r="M10" s="77"/>
-      <c r="N10" s="57"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="57"/>
-      <c r="U10" s="57"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="57"/>
+      <c r="L10" s="84"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="33"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33"/>
     </row>
     <row r="11" spans="1:23">
-      <c r="A11" s="75" t="s">
+      <c r="A11" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="78"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="57"/>
-      <c r="O11" s="57"/>
-      <c r="P11" s="57"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="57"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="57"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="86"/>
+      <c r="L11" s="87"/>
+      <c r="M11" s="88"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="33"/>
+      <c r="S11" s="33"/>
+      <c r="T11" s="33"/>
+      <c r="U11" s="33"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="33"/>
     </row>
     <row r="12" spans="1:23">
-      <c r="A12" s="78"/>
-      <c r="B12" s="79"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="59" t="s">
+      <c r="A12" s="86"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="L12" s="60" t="s">
+      <c r="L12" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="M12" s="61" t="s">
+      <c r="M12" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="57"/>
-      <c r="V12" s="57"/>
-      <c r="W12" s="57"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="33"/>
+      <c r="V12" s="33"/>
+      <c r="W12" s="33"/>
     </row>
     <row r="13" spans="1:23">
-      <c r="A13" s="59" t="s">
+      <c r="A13" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="L13" s="64">
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="40">
         <v>3</v>
       </c>
-      <c r="M13" s="65">
+      <c r="M13" s="41">
         <f>L13/$A$27</f>
         <v>0.15789473684210525</v>
       </c>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="57"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="57"/>
-      <c r="T13" s="57"/>
-      <c r="U13" s="57"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="57"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="33"/>
+      <c r="W13" s="33"/>
     </row>
     <row r="14" spans="1:23">
-      <c r="A14" s="66">
+      <c r="A14" s="42">
         <v>34</v>
       </c>
-      <c r="B14" s="67">
+      <c r="B14" s="43">
         <v>24</v>
       </c>
-      <c r="C14" s="65">
+      <c r="C14" s="41">
         <f>B14/A14</f>
         <v>0.70588235294117652</v>
       </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="L14" s="69">
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" s="45">
         <v>16</v>
       </c>
-      <c r="M14" s="92">
+      <c r="M14" s="54">
         <f>L14/$A$27</f>
         <v>0.84210526315789469</v>
       </c>
-      <c r="N14" s="57"/>
-      <c r="O14" s="57"/>
-      <c r="P14" s="57"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="57"/>
-      <c r="U14" s="57"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="57"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="33"/>
     </row>
     <row r="15" spans="1:23">
-      <c r="A15" s="57"/>
-      <c r="B15" s="57"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="87"/>
-      <c r="K15" s="87"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="57"/>
-      <c r="P15" s="57"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="57"/>
-      <c r="U15" s="57"/>
-      <c r="V15" s="57"/>
-      <c r="W15" s="57"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="50"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33"/>
     </row>
     <row r="16" spans="1:23">
-      <c r="A16" s="57"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="87"/>
-      <c r="K16" s="87"/>
-      <c r="L16" s="87"/>
-      <c r="M16" s="88"/>
-      <c r="N16" s="57"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="57"/>
-      <c r="T16" s="57"/>
-      <c r="U16" s="57"/>
-      <c r="V16" s="57"/>
-      <c r="W16" s="57"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="50"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="33"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
     </row>
     <row r="17" spans="1:23">
-      <c r="A17" s="57"/>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87"/>
-      <c r="L17" s="87"/>
-      <c r="M17" s="87"/>
-      <c r="N17" s="57"/>
-      <c r="O17" s="57"/>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="57"/>
-      <c r="S17" s="57"/>
-      <c r="T17" s="57"/>
-      <c r="U17" s="57"/>
-      <c r="V17" s="57"/>
-      <c r="W17" s="57"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+      <c r="M17" s="49"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="33"/>
     </row>
     <row r="18" spans="1:23">
-      <c r="A18" s="75" t="s">
+      <c r="A18" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="76"/>
-      <c r="C18" s="77"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57"/>
-      <c r="N18" s="57"/>
-      <c r="O18" s="57"/>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="57"/>
-      <c r="S18" s="57"/>
-      <c r="T18" s="57"/>
-      <c r="U18" s="57"/>
-      <c r="V18" s="57"/>
-      <c r="W18" s="57"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="33"/>
     </row>
     <row r="19" spans="1:23">
-      <c r="A19" s="78"/>
-      <c r="B19" s="79"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="89"/>
-      <c r="K19" s="89"/>
-      <c r="L19" s="89"/>
-      <c r="M19" s="89"/>
-      <c r="N19" s="57"/>
-      <c r="O19" s="57"/>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="57"/>
-      <c r="S19" s="57"/>
-      <c r="T19" s="57"/>
-      <c r="U19" s="57"/>
-      <c r="V19" s="57"/>
-      <c r="W19" s="57"/>
+      <c r="A19" s="86"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="33"/>
     </row>
     <row r="20" spans="1:23">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="C20" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="89"/>
-      <c r="K20" s="75" t="s">
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="83" t="s">
         <v>36</v>
       </c>
-      <c r="L20" s="76"/>
-      <c r="M20" s="77"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57"/>
-      <c r="S20" s="57"/>
-      <c r="T20" s="57"/>
-      <c r="U20" s="57"/>
-      <c r="V20" s="57"/>
-      <c r="W20" s="57"/>
+      <c r="L20" s="84"/>
+      <c r="M20" s="85"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
+      <c r="P20" s="33"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="33"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="33"/>
     </row>
     <row r="21" spans="1:23">
-      <c r="A21" s="66">
+      <c r="A21" s="42">
         <f>B14</f>
         <v>24</v>
       </c>
-      <c r="B21" s="67">
+      <c r="B21" s="43">
         <f>21</f>
         <v>21</v>
       </c>
-      <c r="C21" s="65">
+      <c r="C21" s="41">
         <f>B21/A21</f>
         <v>0.875</v>
       </c>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="89"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="79"/>
-      <c r="M21" s="80"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="57"/>
-      <c r="S21" s="57"/>
-      <c r="T21" s="57"/>
-      <c r="U21" s="57"/>
-      <c r="V21" s="57"/>
-      <c r="W21" s="57"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="87"/>
+      <c r="M21" s="88"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
+      <c r="R21" s="33"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="33"/>
     </row>
     <row r="22" spans="1:23">
-      <c r="A22" s="57"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="59" t="s">
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="L22" s="60" t="s">
+      <c r="L22" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="M22" s="61" t="s">
+      <c r="M22" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="57"/>
-      <c r="O22" s="57"/>
-      <c r="P22" s="57"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="57"/>
-      <c r="S22" s="57"/>
-      <c r="T22" s="57"/>
-      <c r="U22" s="57"/>
-      <c r="V22" s="57"/>
-      <c r="W22" s="57"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="33"/>
+      <c r="R22" s="33"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="33"/>
     </row>
     <row r="23" spans="1:23">
-      <c r="A23" s="57"/>
-      <c r="B23" s="57"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="89"/>
-      <c r="K23" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="L23" s="64">
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="39" t="s">
+        <v>37</v>
+      </c>
+      <c r="L23" s="40">
         <v>1</v>
       </c>
-      <c r="M23" s="65">
+      <c r="M23" s="41">
         <f>L23/$A$27</f>
         <v>5.2631578947368418E-2</v>
       </c>
-      <c r="N23" s="57"/>
-      <c r="O23" s="57"/>
-      <c r="P23" s="57"/>
-      <c r="Q23" s="57"/>
-      <c r="R23" s="57"/>
-      <c r="S23" s="57"/>
-      <c r="T23" s="57"/>
-      <c r="U23" s="57"/>
-      <c r="V23" s="57"/>
-      <c r="W23" s="57"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
+      <c r="R23" s="33"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="33"/>
     </row>
     <row r="24" spans="1:23">
-      <c r="A24" s="57"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="89"/>
-      <c r="K24" s="68" t="s">
-        <v>39</v>
-      </c>
-      <c r="L24" s="69">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="L24" s="45">
         <v>18</v>
       </c>
-      <c r="M24" s="92">
+      <c r="M24" s="54">
         <f>L24/$A$27</f>
         <v>0.94736842105263153</v>
       </c>
-      <c r="N24" s="57"/>
-      <c r="O24" s="57"/>
-      <c r="P24" s="57"/>
-      <c r="Q24" s="57"/>
-      <c r="R24" s="57"/>
-      <c r="S24" s="57"/>
-      <c r="T24" s="57"/>
-      <c r="U24" s="57"/>
-      <c r="V24" s="57"/>
-      <c r="W24" s="57"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="33"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="33"/>
     </row>
     <row r="25" spans="1:23">
-      <c r="A25" s="75" t="s">
+      <c r="A25" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="76"/>
-      <c r="C25" s="77"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="89"/>
-      <c r="K25" s="89"/>
-      <c r="L25" s="89"/>
-      <c r="M25" s="90"/>
-      <c r="N25" s="57"/>
-      <c r="O25" s="57"/>
-      <c r="P25" s="57"/>
-      <c r="Q25" s="57"/>
-      <c r="R25" s="57"/>
-      <c r="S25" s="57"/>
-      <c r="T25" s="57"/>
-      <c r="U25" s="57"/>
-      <c r="V25" s="57"/>
-      <c r="W25" s="57"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="33"/>
     </row>
     <row r="26" spans="1:23">
-      <c r="A26" s="78"/>
-      <c r="B26" s="79"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="89"/>
-      <c r="K26" s="89"/>
-      <c r="L26" s="89"/>
-      <c r="M26" s="90"/>
-      <c r="N26" s="57"/>
-      <c r="O26" s="57"/>
-      <c r="P26" s="57"/>
-      <c r="Q26" s="57"/>
-      <c r="R26" s="57"/>
-      <c r="S26" s="57"/>
-      <c r="T26" s="57"/>
-      <c r="U26" s="57"/>
-      <c r="V26" s="57"/>
-      <c r="W26" s="57"/>
+      <c r="A26" s="86"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="51"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="33"/>
     </row>
     <row r="27" spans="1:23">
-      <c r="A27" s="81">
+      <c r="A27" s="89">
         <v>19</v>
       </c>
-      <c r="B27" s="82"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="89"/>
-      <c r="K27" s="89"/>
-      <c r="L27" s="89"/>
-      <c r="M27" s="90"/>
-      <c r="N27" s="57"/>
-      <c r="O27" s="57"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="57"/>
-      <c r="R27" s="57"/>
-      <c r="S27" s="57"/>
-      <c r="T27" s="57"/>
-      <c r="U27" s="57"/>
-      <c r="V27" s="57"/>
-      <c r="W27" s="57"/>
+      <c r="B27" s="90"/>
+      <c r="C27" s="91"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="33"/>
+      <c r="R27" s="33"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="33"/>
     </row>
     <row r="28" spans="1:23">
-      <c r="A28" s="84"/>
-      <c r="B28" s="85"/>
-      <c r="C28" s="86"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="89"/>
-      <c r="L28" s="89"/>
-      <c r="M28" s="90"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="57"/>
-      <c r="S28" s="57"/>
-      <c r="T28" s="57"/>
-      <c r="U28" s="57"/>
-      <c r="V28" s="57"/>
-      <c r="W28" s="57"/>
+      <c r="A28" s="92"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="33"/>
+      <c r="O28" s="33"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="33"/>
     </row>
     <row r="29" spans="1:23">
-      <c r="A29" s="57"/>
-      <c r="B29" s="57"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="89"/>
-      <c r="L29" s="89"/>
-      <c r="M29" s="90"/>
-      <c r="N29" s="57"/>
-      <c r="O29" s="57"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="57"/>
-      <c r="R29" s="57"/>
-      <c r="S29" s="57"/>
-      <c r="T29" s="57"/>
-      <c r="U29" s="57"/>
-      <c r="V29" s="57"/>
-      <c r="W29" s="57"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="33"/>
     </row>
     <row r="30" spans="1:23">
-      <c r="A30" s="57"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="89"/>
-      <c r="L30" s="89"/>
-      <c r="M30" s="89"/>
-      <c r="N30" s="57"/>
-      <c r="O30" s="57"/>
-      <c r="P30" s="57"/>
-      <c r="Q30" s="57"/>
-      <c r="R30" s="57"/>
-      <c r="S30" s="57"/>
-      <c r="T30" s="57"/>
-      <c r="U30" s="57"/>
-      <c r="V30" s="57"/>
-      <c r="W30" s="57"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="33"/>
+      <c r="V30" s="33"/>
+      <c r="W30" s="33"/>
     </row>
     <row r="31" spans="1:23">
-      <c r="A31" s="57"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="89"/>
-      <c r="K31" s="89"/>
-      <c r="L31" s="89"/>
-      <c r="M31" s="89"/>
-      <c r="N31" s="57"/>
-      <c r="O31" s="57"/>
-      <c r="P31" s="57"/>
-      <c r="Q31" s="57"/>
-      <c r="R31" s="57"/>
-      <c r="S31" s="57"/>
-      <c r="T31" s="57"/>
-      <c r="U31" s="57"/>
-      <c r="V31" s="57"/>
-      <c r="W31" s="57"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="33"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="33"/>
     </row>
     <row r="32" spans="1:23">
-      <c r="A32" s="75" t="s">
+      <c r="A32" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="B32" s="76"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="89"/>
-      <c r="K32" s="89"/>
-      <c r="L32" s="89"/>
-      <c r="M32" s="89"/>
-      <c r="N32" s="57"/>
-      <c r="O32" s="57"/>
-      <c r="P32" s="57"/>
-      <c r="Q32" s="57"/>
-      <c r="R32" s="57"/>
-      <c r="S32" s="57"/>
-      <c r="T32" s="57"/>
-      <c r="U32" s="57"/>
-      <c r="V32" s="57"/>
-      <c r="W32" s="57"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="33"/>
+      <c r="S32" s="33"/>
+      <c r="T32" s="33"/>
+      <c r="U32" s="33"/>
+      <c r="V32" s="33"/>
+      <c r="W32" s="33"/>
     </row>
     <row r="33" spans="1:23">
-      <c r="A33" s="78"/>
-      <c r="B33" s="79"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="75" t="s">
-        <v>37</v>
-      </c>
-      <c r="L33" s="76"/>
-      <c r="M33" s="77"/>
-      <c r="N33" s="57"/>
-      <c r="O33" s="57"/>
-      <c r="P33" s="57"/>
-      <c r="Q33" s="57"/>
-      <c r="R33" s="57"/>
-      <c r="S33" s="57"/>
-      <c r="T33" s="57"/>
-      <c r="U33" s="57"/>
-      <c r="V33" s="57"/>
-      <c r="W33" s="57"/>
+      <c r="A33" s="86"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="L33" s="84"/>
+      <c r="M33" s="85"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="33"/>
+      <c r="Q33" s="33"/>
+      <c r="R33" s="33"/>
+      <c r="S33" s="33"/>
+      <c r="T33" s="33"/>
+      <c r="U33" s="33"/>
+      <c r="V33" s="33"/>
+      <c r="W33" s="33"/>
     </row>
     <row r="34" spans="1:23">
-      <c r="A34" s="70" t="s">
+      <c r="A34" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="71" t="s">
+      <c r="B34" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="62" t="s">
+      <c r="C34" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="57"/>
-      <c r="E34" s="57"/>
-      <c r="F34" s="57"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="89"/>
-      <c r="K34" s="78"/>
-      <c r="L34" s="79"/>
-      <c r="M34" s="80"/>
-      <c r="N34" s="57"/>
-      <c r="O34" s="57"/>
-      <c r="P34" s="57"/>
-      <c r="Q34" s="57"/>
-      <c r="R34" s="57"/>
-      <c r="S34" s="57"/>
-      <c r="T34" s="57"/>
-      <c r="U34" s="57"/>
-      <c r="V34" s="57"/>
-      <c r="W34" s="57"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="86"/>
+      <c r="L34" s="87"/>
+      <c r="M34" s="88"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="33"/>
+      <c r="Q34" s="33"/>
+      <c r="R34" s="33"/>
+      <c r="S34" s="33"/>
+      <c r="T34" s="33"/>
+      <c r="U34" s="33"/>
+      <c r="V34" s="33"/>
+      <c r="W34" s="33"/>
     </row>
     <row r="35" spans="1:23">
-      <c r="A35" s="72">
+      <c r="A35" s="48">
         <v>0.5</v>
       </c>
-      <c r="B35" s="67">
+      <c r="B35" s="43">
         <v>3</v>
       </c>
-      <c r="C35" s="65">
+      <c r="C35" s="41">
         <f>B35/A27</f>
         <v>0.15789473684210525</v>
       </c>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="57"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="89"/>
-      <c r="K35" s="59" t="s">
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="L35" s="60" t="s">
+      <c r="L35" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="M35" s="61" t="s">
+      <c r="M35" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="N35" s="57"/>
-      <c r="O35" s="57"/>
-      <c r="P35" s="57"/>
-      <c r="Q35" s="57"/>
-      <c r="R35" s="57"/>
-      <c r="S35" s="57"/>
-      <c r="T35" s="57"/>
-      <c r="U35" s="57"/>
-      <c r="V35" s="57"/>
-      <c r="W35" s="57"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="33"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="33"/>
+      <c r="S35" s="33"/>
+      <c r="T35" s="33"/>
+      <c r="U35" s="33"/>
+      <c r="V35" s="33"/>
+      <c r="W35" s="33"/>
     </row>
     <row r="36" spans="1:23">
-      <c r="A36" s="72">
+      <c r="A36" s="48">
         <v>0.79166666666666663</v>
       </c>
-      <c r="B36" s="67">
+      <c r="B36" s="43">
         <v>2</v>
       </c>
-      <c r="C36" s="65">
+      <c r="C36" s="41">
         <f>B36/A27</f>
         <v>0.10526315789473684</v>
       </c>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="89"/>
-      <c r="K36" s="95" t="s">
-        <v>40</v>
-      </c>
-      <c r="L36" s="96">
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="L36" s="58">
         <v>11</v>
       </c>
-      <c r="M36" s="92">
+      <c r="M36" s="54">
         <f>L36/$A$27</f>
         <v>0.57894736842105265</v>
       </c>
-      <c r="N36" s="57"/>
-      <c r="O36" s="57"/>
-      <c r="P36" s="57"/>
-      <c r="Q36" s="57"/>
-      <c r="R36" s="57"/>
-      <c r="S36" s="57"/>
-      <c r="T36" s="57"/>
-      <c r="U36" s="57"/>
-      <c r="V36" s="57"/>
-      <c r="W36" s="57"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="33"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="33"/>
+      <c r="S36" s="33"/>
+      <c r="T36" s="33"/>
+      <c r="U36" s="33"/>
+      <c r="V36" s="33"/>
+      <c r="W36" s="33"/>
     </row>
     <row r="37" spans="1:23">
-      <c r="A37" s="72">
+      <c r="A37" s="48">
         <v>0.25</v>
       </c>
-      <c r="B37" s="67">
+      <c r="B37" s="43">
         <v>2</v>
       </c>
-      <c r="C37" s="65">
+      <c r="C37" s="41">
         <f>B37/A27</f>
         <v>0.10526315789473684</v>
       </c>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="57"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="89"/>
-      <c r="K37" s="93" t="s">
-        <v>41</v>
-      </c>
-      <c r="L37" s="94">
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="L37" s="56">
         <v>8</v>
       </c>
-      <c r="M37" s="65">
+      <c r="M37" s="41">
         <f>L37/$A$27</f>
         <v>0.42105263157894735</v>
       </c>
-      <c r="N37" s="57"/>
-      <c r="O37" s="57"/>
-      <c r="P37" s="57"/>
-      <c r="Q37" s="57"/>
-      <c r="R37" s="57"/>
-      <c r="S37" s="57"/>
-      <c r="T37" s="57"/>
-      <c r="U37" s="57"/>
-      <c r="V37" s="57"/>
-      <c r="W37" s="57"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="33"/>
+      <c r="T37" s="33"/>
+      <c r="U37" s="33"/>
+      <c r="V37" s="33"/>
+      <c r="W37" s="33"/>
     </row>
     <row r="38" spans="1:23">
-      <c r="A38" s="57"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="89"/>
-      <c r="K38" s="89"/>
-      <c r="L38" s="89"/>
-      <c r="M38" s="91"/>
-      <c r="N38" s="57"/>
-      <c r="O38" s="57"/>
-      <c r="P38" s="57"/>
-      <c r="Q38" s="57"/>
-      <c r="R38" s="57"/>
-      <c r="S38" s="57"/>
-      <c r="T38" s="57"/>
-      <c r="U38" s="57"/>
-      <c r="V38" s="57"/>
-      <c r="W38" s="57"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="53"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="33"/>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="33"/>
+      <c r="S38" s="33"/>
+      <c r="T38" s="33"/>
+      <c r="U38" s="33"/>
+      <c r="V38" s="33"/>
+      <c r="W38" s="33"/>
     </row>
     <row r="39" spans="1:23">
-      <c r="A39" s="57"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
-      <c r="J39" s="89"/>
-      <c r="K39" s="89"/>
-      <c r="L39" s="89"/>
-      <c r="M39" s="91"/>
-      <c r="N39" s="57"/>
-      <c r="O39" s="57"/>
-      <c r="P39" s="57"/>
-      <c r="Q39" s="57"/>
-      <c r="R39" s="57"/>
-      <c r="S39" s="57"/>
-      <c r="T39" s="57"/>
-      <c r="U39" s="57"/>
-      <c r="V39" s="57"/>
-      <c r="W39" s="57"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="53"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="33"/>
+      <c r="S39" s="33"/>
+      <c r="T39" s="33"/>
+      <c r="U39" s="33"/>
+      <c r="V39" s="33"/>
+      <c r="W39" s="33"/>
     </row>
     <row r="40" spans="1:23">
-      <c r="A40" s="57"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="89"/>
-      <c r="K40" s="89"/>
-      <c r="L40" s="89"/>
-      <c r="M40" s="91"/>
-      <c r="N40" s="57"/>
-      <c r="O40" s="57"/>
-      <c r="P40" s="57"/>
-      <c r="Q40" s="57"/>
-      <c r="R40" s="57"/>
-      <c r="S40" s="57"/>
-      <c r="T40" s="57"/>
-      <c r="U40" s="57"/>
-      <c r="V40" s="57"/>
-      <c r="W40" s="57"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="33"/>
+      <c r="P40" s="33"/>
+      <c r="Q40" s="33"/>
+      <c r="R40" s="33"/>
+      <c r="S40" s="33"/>
+      <c r="T40" s="33"/>
+      <c r="U40" s="33"/>
+      <c r="V40" s="33"/>
+      <c r="W40" s="33"/>
     </row>
     <row r="41" spans="1:23">
-      <c r="A41" s="57"/>
-      <c r="B41" s="57"/>
-      <c r="C41" s="57"/>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="57"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="57"/>
-      <c r="I41" s="57"/>
-      <c r="J41" s="89"/>
-      <c r="K41" s="89"/>
-      <c r="L41" s="89"/>
-      <c r="M41" s="89"/>
-      <c r="N41" s="57"/>
-      <c r="O41" s="57"/>
-      <c r="P41" s="57"/>
-      <c r="Q41" s="57"/>
-      <c r="R41" s="57"/>
-      <c r="S41" s="57"/>
-      <c r="T41" s="57"/>
-      <c r="U41" s="57"/>
-      <c r="V41" s="57"/>
-      <c r="W41" s="57"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="33"/>
+      <c r="P41" s="33"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="33"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="33"/>
+      <c r="U41" s="33"/>
+      <c r="V41" s="33"/>
+      <c r="W41" s="33"/>
     </row>
     <row r="42" spans="1:23">
-      <c r="A42" s="57"/>
-      <c r="B42" s="57"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="57"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="57"/>
-      <c r="I42" s="57"/>
-      <c r="J42" s="57"/>
-      <c r="K42" s="57"/>
-      <c r="L42" s="57"/>
-      <c r="M42" s="57"/>
-      <c r="N42" s="57"/>
-      <c r="O42" s="57"/>
-      <c r="P42" s="57"/>
-      <c r="Q42" s="57"/>
-      <c r="R42" s="57"/>
-      <c r="S42" s="57"/>
-      <c r="T42" s="57"/>
-      <c r="U42" s="57"/>
-      <c r="V42" s="57"/>
-      <c r="W42" s="57"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="33"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="33"/>
+      <c r="O42" s="33"/>
+      <c r="P42" s="33"/>
+      <c r="Q42" s="33"/>
+      <c r="R42" s="33"/>
+      <c r="S42" s="33"/>
+      <c r="T42" s="33"/>
+      <c r="U42" s="33"/>
+      <c r="V42" s="33"/>
+      <c r="W42" s="33"/>
     </row>
     <row r="43" spans="1:23">
-      <c r="A43" s="57"/>
-      <c r="B43" s="57"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="57"/>
-      <c r="I43" s="57"/>
-      <c r="J43" s="57"/>
-      <c r="K43" s="57"/>
-      <c r="L43" s="57"/>
-      <c r="M43" s="57"/>
-      <c r="N43" s="57"/>
-      <c r="O43" s="57"/>
-      <c r="P43" s="57"/>
-      <c r="Q43" s="57"/>
-      <c r="R43" s="57"/>
-      <c r="S43" s="57"/>
-      <c r="T43" s="57"/>
-      <c r="U43" s="57"/>
-      <c r="V43" s="57"/>
-      <c r="W43" s="57"/>
+      <c r="A43" s="33"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="33"/>
+      <c r="N43" s="33"/>
+      <c r="O43" s="33"/>
+      <c r="P43" s="33"/>
+      <c r="Q43" s="33"/>
+      <c r="R43" s="33"/>
+      <c r="S43" s="33"/>
+      <c r="T43" s="33"/>
+      <c r="U43" s="33"/>
+      <c r="V43" s="33"/>
+      <c r="W43" s="33"/>
     </row>
     <row r="44" spans="1:23">
-      <c r="A44" s="57"/>
-      <c r="B44" s="57"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="57"/>
-      <c r="L44" s="57"/>
-      <c r="M44" s="57"/>
-      <c r="N44" s="57"/>
-      <c r="O44" s="57"/>
-      <c r="P44" s="57"/>
-      <c r="Q44" s="57"/>
-      <c r="R44" s="57"/>
-      <c r="S44" s="57"/>
-      <c r="T44" s="57"/>
-      <c r="U44" s="57"/>
-      <c r="V44" s="57"/>
-      <c r="W44" s="57"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="33"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="33"/>
+      <c r="M44" s="33"/>
+      <c r="N44" s="33"/>
+      <c r="O44" s="33"/>
+      <c r="P44" s="33"/>
+      <c r="Q44" s="33"/>
+      <c r="R44" s="33"/>
+      <c r="S44" s="33"/>
+      <c r="T44" s="33"/>
+      <c r="U44" s="33"/>
+      <c r="V44" s="33"/>
+      <c r="W44" s="33"/>
     </row>
     <row r="45" spans="1:23">
-      <c r="A45" s="57"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="57"/>
-      <c r="H45" s="57"/>
-      <c r="I45" s="57"/>
-      <c r="J45" s="57"/>
-      <c r="K45" s="57"/>
-      <c r="L45" s="57"/>
-      <c r="M45" s="57"/>
-      <c r="N45" s="57"/>
-      <c r="O45" s="57"/>
-      <c r="P45" s="57"/>
-      <c r="Q45" s="57"/>
-      <c r="R45" s="57"/>
-      <c r="S45" s="57"/>
-      <c r="T45" s="57"/>
-      <c r="U45" s="57"/>
-      <c r="V45" s="57"/>
-      <c r="W45" s="57"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="33"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="33"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="33"/>
+      <c r="M45" s="33"/>
+      <c r="N45" s="33"/>
+      <c r="O45" s="33"/>
+      <c r="P45" s="33"/>
+      <c r="Q45" s="33"/>
+      <c r="R45" s="33"/>
+      <c r="S45" s="33"/>
+      <c r="T45" s="33"/>
+      <c r="U45" s="33"/>
+      <c r="V45" s="33"/>
+      <c r="W45" s="33"/>
     </row>
     <row r="46" spans="1:23">
-      <c r="A46" s="57"/>
-      <c r="B46" s="57"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="57"/>
-      <c r="F46" s="57"/>
-      <c r="G46" s="57"/>
-      <c r="H46" s="57"/>
-      <c r="I46" s="57"/>
-      <c r="J46" s="57"/>
-      <c r="K46" s="57"/>
-      <c r="L46" s="57"/>
-      <c r="M46" s="57"/>
-      <c r="N46" s="57"/>
-      <c r="O46" s="57"/>
-      <c r="P46" s="57"/>
-      <c r="Q46" s="57"/>
-      <c r="R46" s="57"/>
-      <c r="S46" s="57"/>
-      <c r="T46" s="57"/>
-      <c r="U46" s="57"/>
-      <c r="V46" s="57"/>
-      <c r="W46" s="57"/>
+      <c r="A46" s="33"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="33"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="33"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="33"/>
+      <c r="O46" s="33"/>
+      <c r="P46" s="33"/>
+      <c r="Q46" s="33"/>
+      <c r="R46" s="33"/>
+      <c r="S46" s="33"/>
+      <c r="T46" s="33"/>
+      <c r="U46" s="33"/>
+      <c r="V46" s="33"/>
+      <c r="W46" s="33"/>
     </row>
     <row r="47" spans="1:23">
-      <c r="A47" s="57"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="57"/>
-      <c r="F47" s="57"/>
-      <c r="G47" s="57"/>
-      <c r="H47" s="57"/>
-      <c r="I47" s="57"/>
-      <c r="J47" s="57"/>
-      <c r="K47" s="57"/>
-      <c r="L47" s="57"/>
-      <c r="M47" s="57"/>
-      <c r="N47" s="57"/>
-      <c r="O47" s="57"/>
-      <c r="P47" s="57"/>
-      <c r="Q47" s="57"/>
-      <c r="R47" s="57"/>
-      <c r="S47" s="57"/>
-      <c r="T47" s="57"/>
-      <c r="U47" s="57"/>
-      <c r="V47" s="57"/>
-      <c r="W47" s="57"/>
+      <c r="A47" s="33"/>
+      <c r="B47" s="33"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="33"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="33"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="33"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="33"/>
+      <c r="M47" s="33"/>
+      <c r="N47" s="33"/>
+      <c r="O47" s="33"/>
+      <c r="P47" s="33"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="33"/>
+      <c r="S47" s="33"/>
+      <c r="T47" s="33"/>
+      <c r="U47" s="33"/>
+      <c r="V47" s="33"/>
+      <c r="W47" s="33"/>
     </row>
     <row r="48" spans="1:23">
-      <c r="A48" s="57"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="57"/>
-      <c r="G48" s="57"/>
-      <c r="H48" s="57"/>
-      <c r="I48" s="57"/>
-      <c r="J48" s="57"/>
-      <c r="K48" s="57"/>
-      <c r="L48" s="57"/>
-      <c r="M48" s="57"/>
-      <c r="N48" s="57"/>
-      <c r="O48" s="57"/>
-      <c r="P48" s="57"/>
-      <c r="Q48" s="57"/>
-      <c r="R48" s="57"/>
-      <c r="S48" s="57"/>
-      <c r="T48" s="57"/>
-      <c r="U48" s="57"/>
-      <c r="V48" s="57"/>
-      <c r="W48" s="57"/>
+      <c r="A48" s="33"/>
+      <c r="B48" s="33"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="33"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="33"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="33"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="33"/>
+      <c r="M48" s="33"/>
+      <c r="N48" s="33"/>
+      <c r="O48" s="33"/>
+      <c r="P48" s="33"/>
+      <c r="Q48" s="33"/>
+      <c r="R48" s="33"/>
+      <c r="S48" s="33"/>
+      <c r="T48" s="33"/>
+      <c r="U48" s="33"/>
+      <c r="V48" s="33"/>
+      <c r="W48" s="33"/>
     </row>
     <row r="49" spans="1:23">
-      <c r="A49" s="57"/>
-      <c r="B49" s="57"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="57"/>
-      <c r="F49" s="57"/>
-      <c r="G49" s="57"/>
-      <c r="H49" s="57"/>
-      <c r="I49" s="57"/>
-      <c r="J49" s="57"/>
-      <c r="K49" s="57"/>
-      <c r="L49" s="57"/>
-      <c r="M49" s="57"/>
-      <c r="N49" s="57"/>
-      <c r="O49" s="57"/>
-      <c r="P49" s="57"/>
-      <c r="Q49" s="57"/>
-      <c r="R49" s="57"/>
-      <c r="S49" s="57"/>
-      <c r="T49" s="57"/>
-      <c r="U49" s="57"/>
-      <c r="V49" s="57"/>
-      <c r="W49" s="57"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="33"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="33"/>
+      <c r="M49" s="33"/>
+      <c r="N49" s="33"/>
+      <c r="O49" s="33"/>
+      <c r="P49" s="33"/>
+      <c r="Q49" s="33"/>
+      <c r="R49" s="33"/>
+      <c r="S49" s="33"/>
+      <c r="T49" s="33"/>
+      <c r="U49" s="33"/>
+      <c r="V49" s="33"/>
+      <c r="W49" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A18:C19"/>
+    <mergeCell ref="A1:G5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="K10:M11"/>
+    <mergeCell ref="A11:C12"/>
     <mergeCell ref="K20:M21"/>
     <mergeCell ref="A25:C26"/>
     <mergeCell ref="A27:C28"/>
     <mergeCell ref="A32:C33"/>
     <mergeCell ref="K33:M34"/>
-    <mergeCell ref="A1:G5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="K8:M8"/>
-    <mergeCell ref="K10:M11"/>
-    <mergeCell ref="A11:C12"/>
-    <mergeCell ref="A18:C19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
